--- a/people.xlsx
+++ b/people.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,8 +439,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
@@ -509,6 +509,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Оффник</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Оффников</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>10В</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>79226103717</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>@Zeroixxx</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/people.xlsx
+++ b/people.xlsx
@@ -55,15 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +436,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
@@ -479,66 +476,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Точк</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Точечки</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>10В</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>79953432556</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>@Tochechki1</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Оффник</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Оффников</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>10В</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>79226103717</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>@Zeroixxx</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
